--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ttrou\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\reservation\reservations\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>Room</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Expiration_Year</t>
+  </si>
+  <si>
+    <t>Available</t>
   </si>
 </sst>
 </file>
@@ -170,11 +173,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -975,7 +979,7 @@
   <dimension ref="B3:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1036,6 +1040,9 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B9" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="F9" s="1" t="s">
         <v>17</v>
       </c>
